--- a/biology/Botanique/Limbarda_crithmoides/Limbarda_crithmoides.xlsx
+++ b/biology/Botanique/Limbarda_crithmoides/Limbarda_crithmoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inule perce-pierre
 L'Inule fausse criste ou Inule perce-pierre (Limbarda crithmoides) est une espèce de plante à fleurs de la famille des Asteraceae.
@@ -512,7 +524,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle croît dans les terrains salés ou sur les falaises côtières de l'Eurasie.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace. Elle pousse en touffes et peut atteindre 1 m de haut. Elle a des feuilles étroites et de grandes fleurs composées jaunes dont les capitules peuvent atteindre 2 à 3 cm de diamètre. Celles-ci sont pollinisées par les abeilles, les mouches et les coléoptères.
-Sa floraison a lieu de juillet à septembre[1].
+Sa floraison a lieu de juillet à septembre.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles peuvent être mangées crues ou cuites comme légume-feuille[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles peuvent être mangées crues ou cuites comme légume-feuille.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Inula crithmoides L., 1753</t>
         </is>
@@ -636,7 +656,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Basse-Normandie.
 </t>
